--- a/Economics/ACF - PACF/Log-Prices/Japan_gvt_10y residuals - values.xlsx
+++ b/Economics/ACF - PACF/Log-Prices/Japan_gvt_10y residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03145875214036373</v>
+        <v>0.01828970611894851</v>
       </c>
       <c r="C3">
-        <v>0.03177333966176737</v>
+        <v>0.018472603180138</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1237439162280457</v>
+        <v>0.03765778255331428</v>
       </c>
       <c r="C4">
-        <v>0.1253608055989868</v>
+        <v>0.03809030659351954</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.04755497357692001</v>
+        <v>0.008500587609871347</v>
       </c>
       <c r="C5">
-        <v>-0.05746234988873666</v>
+        <v>0.007387760350240193</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.04390420796715085</v>
+        <v>0.008420558978077043</v>
       </c>
       <c r="C6">
-        <v>-0.05938657675502158</v>
+        <v>0.007032774343240066</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08824009406295072</v>
+        <v>-0.0009258082476569908</v>
       </c>
       <c r="C7">
-        <v>0.1123813797103625</v>
+        <v>-0.001869672120960397</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.02352077864089129</v>
+        <v>0.02620543514505558</v>
       </c>
       <c r="C8">
-        <v>-0.02199153565794502</v>
+        <v>0.02729758567946715</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03185030414314403</v>
+        <v>0.04407575562747599</v>
       </c>
       <c r="C9">
-        <v>0.002576864588016097</v>
+        <v>0.04650029605809133</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1322268591584205</v>
+        <v>0.05247991493568245</v>
       </c>
       <c r="C10">
-        <v>0.1638017812296287</v>
+        <v>0.05355055683017039</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0830237212100484</v>
+        <v>0.129822955408621</v>
       </c>
       <c r="C11">
-        <v>0.08705460187567163</v>
+        <v>0.1379718962422831</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.06525034693476184</v>
+        <v>-0.06123313319819337</v>
       </c>
       <c r="C12">
-        <v>-0.1411392143500108</v>
+        <v>-0.07808755078446798</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.02717170351569046</v>
+        <v>-0.008573502556961096</v>
       </c>
       <c r="C13">
-        <v>0.04566402546531845</v>
+        <v>-0.01921163262870373</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.3292942269548858</v>
+        <v>-0.2638083176138604</v>
       </c>
       <c r="C14">
-        <v>-0.3516855561614715</v>
+        <v>-0.3071778347812986</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.09250665038466581</v>
+        <v>0.07182749932236694</v>
       </c>
       <c r="C15">
-        <v>0.1127838121461877</v>
+        <v>0.1003943888879781</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.09065824058408975</v>
+        <v>-0.0900888371473007</v>
       </c>
       <c r="C16">
-        <v>-0.04784192192144283</v>
+        <v>-0.1113962616821318</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.02292729192862072</v>
+        <v>-0.00460981103652542</v>
       </c>
       <c r="C17">
-        <v>-0.07695730646002936</v>
+        <v>0.00756568310093959</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.163877237094434</v>
+        <v>-0.198631902157051</v>
       </c>
       <c r="C18">
-        <v>-0.2801618194296346</v>
+        <v>-0.288614332392897</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.110913209409512</v>
+        <v>-0.07924360464000306</v>
       </c>
       <c r="C19">
-        <v>-0.03057642566592261</v>
+        <v>-0.08729758760763778</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.0431269324562915</v>
+        <v>-0.01837471835733375</v>
       </c>
       <c r="C20">
-        <v>-0.07067057096082406</v>
+        <v>-0.03215980746359591</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.08190942799183591</v>
+        <v>-0.1003240025113585</v>
       </c>
       <c r="C21">
-        <v>-0.07194157704982221</v>
+        <v>-0.06770587687530008</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.06400404776940337</v>
+        <v>-0.04923900339551914</v>
       </c>
       <c r="C22">
-        <v>-0.009559558428924799</v>
+        <v>-0.04040686589230038</v>
       </c>
     </row>
   </sheetData>
